--- a/biology/Botanique/Tillandsia_pinnatodigitata/Tillandsia_pinnatodigitata.xlsx
+++ b/biology/Botanique/Tillandsia_pinnatodigitata/Tillandsia_pinnatodigitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pinnatodigitata Mez est une plante de la famille des Bromeliaceae.
 L'épithète pinnatodigitata, qui signifie « pennée-digitée », se rapporte à l'aspect de l'inflorescence.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pinnatodigitata Mez, in Repert. Spec. Nov. Regni Veg. 3: 39 (1906) (pro « pinnato-digitata » sphalm., cf. ICBN Art. 60.9)
-Diagnose originale[1] :
+Diagnose originale :
 « Statura conspicua; foliis utrinque lepidibus e majoribus, subpruinosis, cinereis obtectis; inflorescentia basi laxius apicem versus dense tripinnatim panniculata[sic]; spicis in bractearum primariarum amplarum axillis sueto ternis subdigitatis stipite communi brevi. nudo praeditis, flabellatis, +/- 10-floris, latiusculis circuitu lanceolatis, inflorescentiae inferioribus quam bracteae primariae brevioribus; bracteis florigeris sepala manifeste superantibus, glabris; floribus erectis; sepalis posticis binis medium usque inter sese connatis. »
-Type : leg. Weberbauer, n° 2736 (e. p.) ; « Peruvia, prov. Cajatambo. dept. Ancachs, prope Ocros, alt. 2400_2900m. 30. Martio florens » ; Holotypus B (Herb. Berol.) [1].
+Type : leg. Weberbauer, n° 2736 (e. p.) ; « Peruvia, prov. Cajatambo. dept. Ancachs, prope Ocros, alt. 2400_2900m. 30. Martio florens » ; Holotypus B (Herb. Berol.) .
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée ; saxicole[1],[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée ; saxicole,
 Habitat : ?
-Altitude : 2400-2900 m[1].</t>
+Altitude : 2400-2900 m.</t>
         </is>
       </c>
     </row>
@@ -634,11 +654,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Pérou
-Ancash[1]</t>
+Ancash</t>
         </is>
       </c>
     </row>
@@ -666,7 +688,9 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante mal connue, Tillandsia pinnatodigitata ne semble pas avoir été introduite en culture.
 </t>
